--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H2">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I2">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J2">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N2">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q2">
-        <v>4.584216488662896</v>
+        <v>5.096424956602666</v>
       </c>
       <c r="R2">
-        <v>4.584216488662896</v>
+        <v>45.867824609424</v>
       </c>
       <c r="S2">
-        <v>0.05749106955662273</v>
+        <v>0.04040268570353275</v>
       </c>
       <c r="T2">
-        <v>0.05749106955662273</v>
+        <v>0.04040268570353275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H3">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I3">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J3">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N3">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q3">
-        <v>10.41550938370694</v>
+        <v>11.54271929191478</v>
       </c>
       <c r="R3">
-        <v>10.41550938370694</v>
+        <v>103.884473627233</v>
       </c>
       <c r="S3">
-        <v>0.1306218360165201</v>
+        <v>0.09150666667055479</v>
       </c>
       <c r="T3">
-        <v>0.1306218360165201</v>
+        <v>0.09150666667055481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H4">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I4">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J4">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N4">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q4">
-        <v>1.701847165147295</v>
+        <v>1.886603145121</v>
       </c>
       <c r="R4">
-        <v>1.701847165147295</v>
+        <v>16.979428306089</v>
       </c>
       <c r="S4">
-        <v>0.02134301771920946</v>
+        <v>0.01495633401230964</v>
       </c>
       <c r="T4">
-        <v>0.02134301771920946</v>
+        <v>0.01495633401230964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H5">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I5">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J5">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N5">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q5">
-        <v>1.952223860802702</v>
+        <v>2.285550076685444</v>
       </c>
       <c r="R5">
-        <v>1.952223860802702</v>
+        <v>20.569950690169</v>
       </c>
       <c r="S5">
-        <v>0.02448301428369999</v>
+        <v>0.01811904662470762</v>
       </c>
       <c r="T5">
-        <v>0.02448301428369999</v>
+        <v>0.01811904662470762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H6">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I6">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J6">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.79899940307721</v>
+        <v>7.373288333333332</v>
       </c>
       <c r="N6">
-        <v>6.79899940307721</v>
+        <v>22.119865</v>
       </c>
       <c r="O6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="P6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="Q6">
-        <v>2.320321771617401</v>
+        <v>2.750209512942777</v>
       </c>
       <c r="R6">
-        <v>2.320321771617401</v>
+        <v>24.751885616485</v>
       </c>
       <c r="S6">
-        <v>0.02909936315086877</v>
+        <v>0.02180270513477039</v>
       </c>
       <c r="T6">
-        <v>0.02909936315086877</v>
+        <v>0.02180270513477039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H7">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J7">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N7">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O7">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P7">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q7">
-        <v>10.31461472483881</v>
+        <v>11.176911384608</v>
       </c>
       <c r="R7">
-        <v>10.31461472483881</v>
+        <v>100.592202461472</v>
       </c>
       <c r="S7">
-        <v>0.129356507063312</v>
+        <v>0.08860666872441905</v>
       </c>
       <c r="T7">
-        <v>0.129356507063312</v>
+        <v>0.08860666872441904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H8">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J8">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N8">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P8">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q8">
-        <v>23.43518608284917</v>
+        <v>25.31420589171934</v>
       </c>
       <c r="R8">
-        <v>23.43518608284917</v>
+        <v>227.827853025474</v>
       </c>
       <c r="S8">
-        <v>0.2939027675707473</v>
+        <v>0.2006822259106584</v>
       </c>
       <c r="T8">
-        <v>0.2939027675707473</v>
+        <v>0.2006822259106583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H9">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J9">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N9">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O9">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P9">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q9">
-        <v>3.829203501288727</v>
+        <v>4.137487817538001</v>
       </c>
       <c r="R9">
-        <v>3.829203501288727</v>
+        <v>37.237390357842</v>
       </c>
       <c r="S9">
-        <v>0.04802238406137413</v>
+        <v>0.03280056536054992</v>
       </c>
       <c r="T9">
-        <v>0.04802238406137413</v>
+        <v>0.03280056536054991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H10">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J10">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N10">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O10">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P10">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q10">
-        <v>4.392558037042123</v>
+        <v>5.012413778231334</v>
       </c>
       <c r="R10">
-        <v>4.392558037042123</v>
+        <v>45.11172400408201</v>
       </c>
       <c r="S10">
-        <v>0.05508746374950294</v>
+        <v>0.03973667428097215</v>
       </c>
       <c r="T10">
-        <v>0.05508746374950294</v>
+        <v>0.03973667428097213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H11">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J11">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.79899940307721</v>
+        <v>7.373288333333332</v>
       </c>
       <c r="N11">
-        <v>6.79899940307721</v>
+        <v>22.119865</v>
       </c>
       <c r="O11">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="P11">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="Q11">
-        <v>5.220788584282078</v>
+        <v>6.031453082703333</v>
       </c>
       <c r="R11">
-        <v>5.220788584282078</v>
+        <v>54.28307774433</v>
       </c>
       <c r="S11">
-        <v>0.06547437722055072</v>
+        <v>0.04781526370173632</v>
       </c>
       <c r="T11">
-        <v>0.06547437722055072</v>
+        <v>0.0478152637017363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H12">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I12">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J12">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N12">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O12">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P12">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q12">
-        <v>2.529111698211749</v>
+        <v>4.016363930928</v>
       </c>
       <c r="R12">
-        <v>2.529111698211749</v>
+        <v>36.147275378352</v>
       </c>
       <c r="S12">
-        <v>0.03171781631996397</v>
+        <v>0.03184033728624969</v>
       </c>
       <c r="T12">
-        <v>0.03171781631996397</v>
+        <v>0.03184033728624968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H13">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I13">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J13">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N13">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P13">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q13">
-        <v>5.746235303309327</v>
+        <v>9.096525863450999</v>
       </c>
       <c r="R13">
-        <v>5.746235303309327</v>
+        <v>81.868732771059</v>
       </c>
       <c r="S13">
-        <v>0.07206405158401122</v>
+        <v>0.0721140953873798</v>
       </c>
       <c r="T13">
-        <v>0.07206405158401122</v>
+        <v>0.0721140953873798</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H14">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I14">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J14">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N14">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O14">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P14">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q14">
-        <v>0.938908881067688</v>
+        <v>1.486784341683</v>
       </c>
       <c r="R14">
-        <v>0.938908881067688</v>
+        <v>13.381059075147</v>
       </c>
       <c r="S14">
-        <v>0.01177494036817131</v>
+        <v>0.01178670950273258</v>
       </c>
       <c r="T14">
-        <v>0.01177494036817131</v>
+        <v>0.01178670950273258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H15">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I15">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J15">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N15">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O15">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P15">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q15">
-        <v>1.077041674644893</v>
+        <v>1.801184353443</v>
       </c>
       <c r="R15">
-        <v>1.077041674644893</v>
+        <v>16.210659180987</v>
       </c>
       <c r="S15">
-        <v>0.01350727610389352</v>
+        <v>0.01427916352069461</v>
       </c>
       <c r="T15">
-        <v>0.01350727610389352</v>
+        <v>0.0142791635206946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.293949</v>
+      </c>
+      <c r="H16">
+        <v>0.881847</v>
+      </c>
+      <c r="I16">
+        <v>0.1472024675547531</v>
+      </c>
+      <c r="J16">
+        <v>0.1472024675547531</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N16">
+        <v>22.119865</v>
+      </c>
+      <c r="O16">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P16">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q16">
+        <v>2.167370732295</v>
+      </c>
+      <c r="R16">
+        <v>19.506336590655</v>
+      </c>
+      <c r="S16">
+        <v>0.01718216185769643</v>
+      </c>
+      <c r="T16">
+        <v>0.01718216185769643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.563594</v>
+      </c>
+      <c r="I17">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J17">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.663472</v>
+      </c>
+      <c r="N17">
+        <v>40.990416</v>
+      </c>
+      <c r="O17">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="P17">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="Q17">
+        <v>2.566883612789333</v>
+      </c>
+      <c r="R17">
+        <v>23.101952515104</v>
+      </c>
+      <c r="S17">
+        <v>0.02034936111650503</v>
+      </c>
+      <c r="T17">
+        <v>0.02034936111650502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.563594</v>
+      </c>
+      <c r="I18">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J18">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N18">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="P18">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="Q18">
+        <v>5.813647262490889</v>
+      </c>
+      <c r="R18">
+        <v>52.322825362418</v>
+      </c>
+      <c r="S18">
+        <v>0.04608857486134776</v>
+      </c>
+      <c r="T18">
+        <v>0.04608857486134776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.563594</v>
+      </c>
+      <c r="I19">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J19">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.057967000000001</v>
+      </c>
+      <c r="N19">
+        <v>15.173901</v>
+      </c>
+      <c r="O19">
+        <v>0.08007141251452472</v>
+      </c>
+      <c r="P19">
+        <v>0.08007141251452471</v>
+      </c>
+      <c r="Q19">
+        <v>0.9502132844660002</v>
+      </c>
+      <c r="R19">
+        <v>8.551919560194001</v>
+      </c>
+      <c r="S19">
+        <v>0.007532960655854207</v>
+      </c>
+      <c r="T19">
+        <v>0.007532960655854206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.563594</v>
+      </c>
+      <c r="I20">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J20">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.127540333333333</v>
+      </c>
+      <c r="N20">
+        <v>18.382621</v>
+      </c>
+      <c r="O20">
+        <v>0.09700356086343023</v>
+      </c>
+      <c r="P20">
+        <v>0.09700356086343022</v>
+      </c>
+      <c r="Q20">
+        <v>1.151148322208222</v>
+      </c>
+      <c r="R20">
+        <v>10.360334899874</v>
+      </c>
+      <c r="S20">
+        <v>0.00912590379655695</v>
+      </c>
+      <c r="T20">
+        <v>0.00912590379655695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.563594</v>
+      </c>
+      <c r="I21">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J21">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N21">
+        <v>22.119865</v>
+      </c>
+      <c r="O21">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P21">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q21">
+        <v>1.385180354978889</v>
+      </c>
+      <c r="R21">
+        <v>12.46662319481</v>
+      </c>
+      <c r="S21">
+        <v>0.01098122841040063</v>
+      </c>
+      <c r="T21">
+        <v>0.01098122841040063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.972236</v>
+      </c>
+      <c r="I22">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J22">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.663472</v>
+      </c>
+      <c r="N22">
+        <v>40.990416</v>
+      </c>
+      <c r="O22">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="P22">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="Q22">
+        <v>4.428039787797333</v>
+      </c>
+      <c r="R22">
+        <v>39.852358090176</v>
+      </c>
+      <c r="S22">
+        <v>0.03510396039430224</v>
+      </c>
+      <c r="T22">
+        <v>0.03510396039430224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.972236</v>
+      </c>
+      <c r="I23">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J23">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N23">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O23">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="P23">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="Q23">
+        <v>10.02891648934355</v>
+      </c>
+      <c r="R23">
+        <v>90.260248404092</v>
+      </c>
+      <c r="S23">
+        <v>0.07950576420064318</v>
+      </c>
+      <c r="T23">
+        <v>0.07950576420064318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.18828082970789</v>
-      </c>
-      <c r="H16">
-        <v>0.18828082970789</v>
-      </c>
-      <c r="I16">
-        <v>0.1451181996075919</v>
-      </c>
-      <c r="J16">
-        <v>0.1451181996075919</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.79899940307721</v>
-      </c>
-      <c r="N16">
-        <v>6.79899940307721</v>
-      </c>
-      <c r="O16">
-        <v>0.1106278556029713</v>
-      </c>
-      <c r="P16">
-        <v>0.1106278556029713</v>
-      </c>
-      <c r="Q16">
-        <v>1.280121248794826</v>
-      </c>
-      <c r="R16">
-        <v>1.280121248794826</v>
-      </c>
-      <c r="S16">
-        <v>0.01605411523155184</v>
-      </c>
-      <c r="T16">
-        <v>0.01605411523155184</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.972236</v>
+      </c>
+      <c r="I24">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J24">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.057967000000001</v>
+      </c>
+      <c r="N24">
+        <v>15.173901</v>
+      </c>
+      <c r="O24">
+        <v>0.08007141251452472</v>
+      </c>
+      <c r="P24">
+        <v>0.08007141251452471</v>
+      </c>
+      <c r="Q24">
+        <v>1.639179201404</v>
+      </c>
+      <c r="R24">
+        <v>14.752612812636</v>
+      </c>
+      <c r="S24">
+        <v>0.01299484298307837</v>
+      </c>
+      <c r="T24">
+        <v>0.01299484298307837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.972236</v>
+      </c>
+      <c r="I25">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J25">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.127540333333333</v>
+      </c>
+      <c r="N25">
+        <v>18.382621</v>
+      </c>
+      <c r="O25">
+        <v>0.09700356086343023</v>
+      </c>
+      <c r="P25">
+        <v>0.09700356086343022</v>
+      </c>
+      <c r="Q25">
+        <v>1.985805101172889</v>
+      </c>
+      <c r="R25">
+        <v>17.872245910556</v>
+      </c>
+      <c r="S25">
+        <v>0.01574277264049891</v>
+      </c>
+      <c r="T25">
+        <v>0.01574277264049891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.972236</v>
+      </c>
+      <c r="I26">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J26">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N26">
+        <v>22.119865</v>
+      </c>
+      <c r="O26">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P26">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q26">
+        <v>2.389525452015555</v>
+      </c>
+      <c r="R26">
+        <v>21.50572906814</v>
+      </c>
+      <c r="S26">
+        <v>0.01894332726184854</v>
+      </c>
+      <c r="T26">
+        <v>0.01894332726184853</v>
       </c>
     </row>
   </sheetData>
